--- a/Media.xlsx
+++ b/Media.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonGC\Desktop\11\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C66D5B-5758-4062-81F5-22BE9BAE820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD53C27F-7543-4DDC-8428-501713889F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4026173E-FC97-4A44-B4B3-F30B85234254}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4026173E-FC97-4A44-B4B3-F30B85234254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>Event Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>10AM</t>
-  </si>
-  <si>
     <t>Labibur Rahman</t>
   </si>
   <si>
@@ -75,16 +72,78 @@
   </si>
   <si>
     <t>https://thephotolabx.myshopify.com/</t>
+  </si>
+  <si>
+    <t>Maverick Gym</t>
+  </si>
+  <si>
+    <t>Alex Hulme</t>
+  </si>
+  <si>
+    <t>https://jagershoots.com</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>349 Barbell</t>
+  </si>
+  <si>
+    <t>SP4 6AT</t>
+  </si>
+  <si>
+    <t>https://melladaymedia.co.uk</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>Raw Strength Gym</t>
+  </si>
+  <si>
+    <t>Stag Fitness Centre</t>
+  </si>
+  <si>
+    <t>Mike Melladay</t>
+  </si>
+  <si>
+    <t>Lincoln Lifting</t>
+  </si>
+  <si>
+    <t>Spartan Fitness Gym</t>
+  </si>
+  <si>
+    <t>Sam Taylor</t>
+  </si>
+  <si>
+    <t>Videography</t>
+  </si>
+  <si>
+    <t>Nottingham Strong</t>
+  </si>
+  <si>
+    <t>NG7 2FH</t>
+  </si>
+  <si>
+    <t>Iron Warehouse Gym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,14 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDE5942-4C02-490F-BD86-4ECA492D6A6F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -487,7 +549,7 @@
         <v>45865</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -496,16 +558,292 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45872</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45893</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45928</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45977</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45984</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45997</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45998</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{74B88808-6D71-4D43-BDF0-1E0B1DC85309}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{2BE79F26-EEF4-4092-B937-A70DAF98B440}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{830B3EE5-DCA1-4B40-99A7-1BA8DA1FA64A}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{BBC32CE4-444E-47FF-9E22-5C90E529264D}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{BB662203-A6D2-4439-A2E7-FF51BC42D2FE}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{2846E25F-7753-40E8-8FD9-DA627340E6D7}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{65CF43A8-7DD8-4B9B-9704-BF822410B047}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Media.xlsx
+++ b/Media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonGC\Desktop\11\Media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD53C27F-7543-4DDC-8428-501713889F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A037215D-90F4-45FE-9C16-14364F55BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4026173E-FC97-4A44-B4B3-F30B85234254}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4026173E-FC97-4A44-B4B3-F30B85234254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Event Date</t>
   </si>
@@ -71,18 +71,12 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://thephotolabx.myshopify.com/</t>
-  </si>
-  <si>
     <t>Maverick Gym</t>
   </si>
   <si>
     <t>Alex Hulme</t>
   </si>
   <si>
-    <t>https://jagershoots.com</t>
-  </si>
-  <si>
     <t>10am</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>SP4 6AT</t>
   </si>
   <si>
-    <t>https://melladaymedia.co.uk</t>
-  </si>
-  <si>
     <t>9am</t>
   </si>
   <si>
@@ -126,6 +117,21 @@
   </si>
   <si>
     <t>Iron Warehouse Gym</t>
+  </si>
+  <si>
+    <t>www.melladaymedia.co.uk</t>
+  </si>
+  <si>
+    <t>www.thephotolabx.myshopify.com/</t>
+  </si>
+  <si>
+    <t>www.jagershoots.com</t>
+  </si>
+  <si>
+    <t>Emma Wilding</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -511,17 +517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDE5942-4C02-490F-BD86-4ECA492D6A6F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,12 +550,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45865</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -564,41 +570,41 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45872</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45879</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -607,242 +613,285 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45886</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45893</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45907</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45928</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45935</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45935</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45962</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45963</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45977</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45984</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45991</v>
       </c>
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45997</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45998</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{74B88808-6D71-4D43-BDF0-1E0B1DC85309}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{2BE79F26-EEF4-4092-B937-A70DAF98B440}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{830B3EE5-DCA1-4B40-99A7-1BA8DA1FA64A}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{BBC32CE4-444E-47FF-9E22-5C90E529264D}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{BB662203-A6D2-4439-A2E7-FF51BC42D2FE}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{2846E25F-7753-40E8-8FD9-DA627340E6D7}"/>
-    <hyperlink ref="G14" r:id="rId7" xr:uid="{65CF43A8-7DD8-4B9B-9704-BF822410B047}"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://jagershoots.com" xr:uid="{2BE79F26-EEF4-4092-B937-A70DAF98B440}"/>
+    <hyperlink ref="G6" r:id="rId3" display="https://melladaymedia.co.uk" xr:uid="{830B3EE5-DCA1-4B40-99A7-1BA8DA1FA64A}"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://jagershoots.com" xr:uid="{BBC32CE4-444E-47FF-9E22-5C90E529264D}"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://jagershoots.com" xr:uid="{BB662203-A6D2-4439-A2E7-FF51BC42D2FE}"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://jagershoots.com" xr:uid="{2846E25F-7753-40E8-8FD9-DA627340E6D7}"/>
+    <hyperlink ref="G14" r:id="rId7" display="https://melladaymedia.co.uk" xr:uid="{65CF43A8-7DD8-4B9B-9704-BF822410B047}"/>
+    <hyperlink ref="G11" r:id="rId8" display="https://jagershoots.com" xr:uid="{34AE0A7F-72B2-4147-8408-2F7855BB537C}"/>
+    <hyperlink ref="G12" r:id="rId9" display="https://jagershoots.com" xr:uid="{90203648-2E86-492F-BFD6-F3C610BED975}"/>
+    <hyperlink ref="G16" r:id="rId10" display="https://jagershoots.com" xr:uid="{EA74FD0E-A088-470A-9D89-42CF959DA32A}"/>
+    <hyperlink ref="G17" r:id="rId11" display="https://jagershoots.com" xr:uid="{2E8E832A-3C1D-48EB-A87F-FD89A2575C3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
